--- a/Supplemental_table_S2.12.xlsx
+++ b/Supplemental_table_S2.12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megan/Documents/Chang-Bergelson Lab/Dissertation/WD_abx/Figures/diss_versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A310EC-CE18-1044-9A31-D9D0A372E227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BFCE6B-7530-1C43-9CFB-4ED912D87C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="22360" windowHeight="17480" xr2:uid="{6C5F040E-C417-5740-8967-DC2B244B69DA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
   <si>
     <t>Df</t>
   </si>
@@ -303,13 +303,52 @@
   </si>
   <si>
     <t>PERMANOVA: BC_dist ~ Post.diet*ABX*Post.micr + Pre.diet</t>
+  </si>
+  <si>
+    <t>TREATMENT GROUP KEY</t>
+  </si>
+  <si>
+    <t>RC-ABX-PBS = RC --&gt; RCD/PBSM</t>
+  </si>
+  <si>
+    <t>WD-ABX-PBS = WD --&gt; WDD/PBSM</t>
+  </si>
+  <si>
+    <t>RC-DIET = RC --&gt; WDD/RCM</t>
+  </si>
+  <si>
+    <t>WD-DIET = WD --&gt; RCD/WDM</t>
+  </si>
+  <si>
+    <t>RC-MICR = RC --&gt; RCD/WDM</t>
+  </si>
+  <si>
+    <t>WD-MICR = WD --&gt; WDD/RCM</t>
+  </si>
+  <si>
+    <t>RC-RC = RC --&gt; RCD/RCM</t>
+  </si>
+  <si>
+    <t>WD-RC = WD --&gt; RCD/RCM</t>
+  </si>
+  <si>
+    <t>WD-WD = WD --&gt; WDD/WDM</t>
+  </si>
+  <si>
+    <t>RC-WD = RC --&gt; WDD/WDM</t>
+  </si>
+  <si>
+    <t>RC-PBS-PBS = RC --&gt; no-ABX control</t>
+  </si>
+  <si>
+    <t>WD-PBS-PBS = WD --&gt; no-ABX control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,6 +382,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -418,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -433,11 +477,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,18 +798,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E6DE9F-E0D8-5B4A-8E37-D762736590E1}">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>88</v>
       </c>
@@ -773,7 +820,7 @@
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -791,1888 +838,1927 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13">
         <v>4.6745498999999997</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>0.15927557000000001</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="13">
         <v>19.079996999999999</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="13">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B4" s="13">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
         <v>2.3866979000000001</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="13">
         <v>8.1321770000000002E-2</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="13">
         <v>9.7417269999999991</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="13">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="13">
         <v>1.8961429000000001</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="13">
         <v>6.4607129999999999E-2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="13">
         <v>3.86972</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="13">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
         <v>0.62917109999999998</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="13">
         <v>2.1437700000000001E-2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="13">
         <v>2.5680719999999999</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="13">
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
         <v>1.6799945000000001</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <v>5.7242319999999999E-2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="13">
         <v>6.8571929999999996</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="13">
         <v>1E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <v>0.93244439999999995</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="13">
         <v>3.1771109999999998E-2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="13">
         <v>1.902968</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="13">
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="13">
         <v>70</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="13">
         <v>17.149819099999998</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="13">
         <v>0.58434441999999998</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="13">
         <v>78</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="13">
         <v>29.3488197</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="13">
         <v>1</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13">
         <v>0.7050613</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="13">
         <v>3.0247576999999999</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="13">
         <v>0.21567272000000001</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="13">
         <v>1.2E-2</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="13">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="12">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="13">
         <v>0.56712960000000001</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="13">
         <v>2.2205713</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="13">
         <v>0.15615203999999999</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="13">
         <v>3.1E-2</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="13">
         <v>3.8603774E-2</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="J15" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="12">
-        <v>1</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="13">
         <v>1.7609347</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="13">
         <v>7.7962021000000004</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="13">
         <v>0.39382312000000003</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="13">
         <v>5.0769229999999997E-3</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="H16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="12">
-        <v>1</v>
-      </c>
-      <c r="C17" s="12">
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
+      <c r="C17" s="13">
         <v>0.65888550000000001</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="13">
         <v>2.4222744</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="13">
         <v>0.16795370000000001</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="13">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="13">
         <v>2.8285714E-2</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="13" t="s">
         <v>19</v>
       </c>
       <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="J17" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="12">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12">
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
         <v>0.96135619999999999</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="13">
         <v>4.8367310999999997</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="13">
         <v>0.28727258</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="H18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="12">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12">
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
         <v>2.0964076</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="13">
         <v>9.0568117000000008</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="13">
         <v>0.43011315</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="H19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="12">
-        <v>1</v>
-      </c>
-      <c r="C20" s="12">
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+      <c r="C20" s="13">
         <v>1.5807656999999999</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="13">
         <v>8.9350272000000004</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="13">
         <v>0.47187824</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="H20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="12">
-        <v>1</v>
-      </c>
-      <c r="C21" s="12">
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
         <v>0.9637907</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="13">
         <v>3.9999416000000001</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="13">
         <v>0.24999726</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="13">
         <v>2E-3</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="H21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="12">
-        <v>1</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="13">
         <v>0.57423709999999994</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="13">
         <v>2.3306604000000002</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="13">
         <v>0.16263453999999999</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="13">
         <v>0.03</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="13">
         <v>3.8076922999999999E-2</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="J22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="12">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="13">
         <v>1.5189849</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="13">
         <v>6.6221151999999996</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="13">
         <v>0.37578435999999998</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="H23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="12">
-        <v>1</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13">
         <v>1.7663968000000001</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="13">
         <v>7.6947573</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="13">
         <v>0.41159973999999999</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="13">
         <v>2E-3</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+      <c r="H24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="12">
-        <v>1</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="B25" s="13">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13">
         <v>0.59358100000000003</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="13">
         <v>2.2276087000000002</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="13">
         <v>0.16840600999999999</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="13">
         <v>2.3E-2</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="13">
         <v>3.0360000000000002E-2</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="J25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="12">
-        <v>1</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="B26" s="13">
+        <v>1</v>
+      </c>
+      <c r="C26" s="13">
         <v>1.9414636999999999</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="13">
         <v>8.2878559999999997</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="13">
         <v>0.42969296000000001</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="H26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="12">
-        <v>1</v>
-      </c>
-      <c r="C27" s="12">
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13">
         <v>0.834789</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="13">
         <v>2.9333160999999999</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="13">
         <v>0.21052534000000001</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="13">
         <v>2.4E-2</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="13">
         <v>3.1058823999999999E-2</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="J27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="12">
-        <v>1</v>
-      </c>
-      <c r="C28" s="12">
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+      <c r="C28" s="13">
         <v>1.1009298999999999</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="13">
         <v>5.3787785000000001</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="13">
         <v>0.32839923999999998</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
+      <c r="H28" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="12">
-        <v>1</v>
-      </c>
-      <c r="C29" s="12">
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+      <c r="C29" s="13">
         <v>1.8715955</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="13">
         <v>7.7864563000000002</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="13">
         <v>0.4144718</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="13">
         <v>2E-3</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="H29" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="12">
-        <v>1</v>
-      </c>
-      <c r="C30" s="12">
+      <c r="B30" s="13">
+        <v>1</v>
+      </c>
+      <c r="C30" s="13">
         <v>1.9349575000000001</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="13">
         <v>10.647738</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="13">
         <v>0.54193199999999997</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
+      <c r="H30" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="12">
-        <v>1</v>
-      </c>
-      <c r="C31" s="12">
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+      <c r="C31" s="13">
         <v>1.2775919</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="13">
         <v>5.0959897999999999</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="13">
         <v>0.31659996000000001</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="13">
         <v>2E-3</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="H31" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="12">
-        <v>1</v>
-      </c>
-      <c r="C32" s="12">
+      <c r="B32" s="13">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13">
         <v>0.86424820000000002</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="13">
         <v>3.3676572999999999</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="13">
         <v>0.23439154000000001</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="13">
         <v>1.1478261E-2</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="12">
-        <v>1</v>
-      </c>
-      <c r="C33" s="12">
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13">
         <v>1.8017415999999999</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="13">
         <v>7.5401470000000002</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="13">
         <v>0.42987934999999999</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="13">
         <v>7.674419E-3</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="12">
-        <v>1</v>
-      </c>
-      <c r="C34" s="12">
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
+      <c r="C34" s="13">
         <v>1.7720724000000001</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="13">
         <v>7.4099168000000004</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="13">
         <v>0.42561472</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="13">
         <v>7.674419E-3</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="12">
-        <v>1</v>
-      </c>
-      <c r="C35" s="12">
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13">
         <v>1.7098903000000001</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="13">
         <v>6.6673086000000001</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="13">
         <v>0.35716495999999998</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="13">
         <v>2E-3</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="12">
-        <v>1</v>
-      </c>
-      <c r="C36" s="12">
+      <c r="B36" s="13">
+        <v>1</v>
+      </c>
+      <c r="C36" s="13">
         <v>0.42742059999999998</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="13">
         <v>1.4124979</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="13">
         <v>0.10531206999999999</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="13">
         <v>0.154</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="13">
         <v>0.16662295099999999</v>
       </c>
-      <c r="H36" s="12"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="12">
-        <v>1</v>
-      </c>
-      <c r="C37" s="12">
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+      <c r="C37" s="13">
         <v>1.0763023</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="13">
         <v>4.6928463999999996</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="13">
         <v>0.28112918999999997</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="13">
         <v>5.0769229999999997E-3</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="12">
-        <v>1</v>
-      </c>
-      <c r="C38" s="12">
+      <c r="B38" s="13">
+        <v>1</v>
+      </c>
+      <c r="C38" s="13">
         <v>1.9131202</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="13">
         <v>7.3002848</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="13">
         <v>0.37824752</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="13">
         <v>2E-3</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="12">
-        <v>1</v>
-      </c>
-      <c r="C39" s="12">
+      <c r="B39" s="13">
+        <v>1</v>
+      </c>
+      <c r="C39" s="13">
         <v>1.6655453</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="13">
         <v>7.7966407000000002</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="13">
         <v>0.43809619999999999</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="13">
         <v>7.674419E-3</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="12">
-        <v>1</v>
-      </c>
-      <c r="C40" s="12">
+      <c r="B40" s="13">
+        <v>1</v>
+      </c>
+      <c r="C40" s="13">
         <v>0.68254619999999999</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="13">
         <v>2.5136192999999998</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="13">
         <v>0.17319039</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="13">
         <v>1.2638297999999999E-2</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="12">
-        <v>1</v>
-      </c>
-      <c r="C41" s="12">
+      <c r="B41" s="13">
+        <v>1</v>
+      </c>
+      <c r="C41" s="13">
         <v>0.53721940000000001</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="13">
         <v>1.9396173000000001</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="13">
         <v>0.13914423000000001</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="13">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="13">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="12">
-        <v>1</v>
-      </c>
-      <c r="C42" s="12">
+      <c r="B42" s="13">
+        <v>1</v>
+      </c>
+      <c r="C42" s="13">
         <v>1.561976</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="13">
         <v>5.9447374999999996</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="13">
         <v>0.3508309</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="12">
-        <v>1</v>
-      </c>
-      <c r="C43" s="12">
+      <c r="B43" s="13">
+        <v>1</v>
+      </c>
+      <c r="C43" s="13">
         <v>1.6538592999999999</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="13">
         <v>6.2901790999999996</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="13">
         <v>0.36380068999999998</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="12">
-        <v>1</v>
-      </c>
-      <c r="C44" s="12">
+      <c r="B44" s="13">
+        <v>1</v>
+      </c>
+      <c r="C44" s="13">
         <v>1.5006714999999999</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="13">
         <v>5.4955181</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="13">
         <v>0.31411004999999997</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="12">
-        <v>1</v>
-      </c>
-      <c r="C45" s="12">
+      <c r="B45" s="13">
+        <v>1</v>
+      </c>
+      <c r="C45" s="13">
         <v>2.1942797000000001</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="13">
         <v>10.9811516</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="13">
         <v>0.47783295999999997</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="13">
         <v>2E-3</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="12">
-        <v>1</v>
-      </c>
-      <c r="C46" s="12">
+      <c r="B46" s="13">
+        <v>1</v>
+      </c>
+      <c r="C46" s="13">
         <v>0.28696939999999999</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="13">
         <v>1.2340974</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="13">
         <v>9.3251349999999997E-2</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="13">
         <v>0.307</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="13">
         <v>0.31172307700000002</v>
       </c>
-      <c r="H46" s="12"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="12">
-        <v>1</v>
-      </c>
-      <c r="C47" s="12">
+      <c r="B47" s="13">
+        <v>1</v>
+      </c>
+      <c r="C47" s="13">
         <v>0.93953379999999997</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="13">
         <v>5.2726278999999998</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="13">
         <v>0.34523384000000001</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="13">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="13">
         <v>1.0266667E-2</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="12">
-        <v>1</v>
-      </c>
-      <c r="C48" s="12">
+      <c r="B48" s="13">
+        <v>1</v>
+      </c>
+      <c r="C48" s="13">
         <v>1.4913666999999999</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="13">
         <v>6.1623666999999998</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="13">
         <v>0.33929314999999999</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="13">
         <v>2E-3</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G48" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="12">
-        <v>1</v>
-      </c>
-      <c r="C49" s="12">
+      <c r="B49" s="13">
+        <v>1</v>
+      </c>
+      <c r="C49" s="13">
         <v>1.4697891000000001</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="13">
         <v>5.9398702999999999</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="13">
         <v>0.33109884000000001</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="13">
         <v>5.0769229999999997E-3</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="12">
-        <v>1</v>
-      </c>
-      <c r="C50" s="12">
+      <c r="B50" s="13">
+        <v>1</v>
+      </c>
+      <c r="C50" s="13">
         <v>0.28381200000000001</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="13">
         <v>1.2310863000000001</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="13">
         <v>0.10065225</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="13">
         <v>0.30099999999999999</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="13">
         <v>0.31040624999999999</v>
       </c>
-      <c r="H50" s="12"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="12">
-        <v>1</v>
-      </c>
-      <c r="C51" s="12">
+      <c r="B51" s="13">
+        <v>1</v>
+      </c>
+      <c r="C51" s="13">
         <v>0.63930629999999999</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="13">
         <v>2.7709698999999999</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="13">
         <v>0.20121821000000001</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="13">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="13">
         <v>6.3642856999999997E-2</v>
       </c>
-      <c r="H51" s="12"/>
+      <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B52" s="12">
-        <v>1</v>
-      </c>
-      <c r="C52" s="12">
+      <c r="B52" s="13">
+        <v>1</v>
+      </c>
+      <c r="C52" s="13">
         <v>1.1324656</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="13">
         <v>4.6042186000000003</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="13">
         <v>0.27729209999999999</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="13">
         <v>5.0769229999999997E-3</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="12">
-        <v>1</v>
-      </c>
-      <c r="C53" s="12">
+      <c r="B53" s="13">
+        <v>1</v>
+      </c>
+      <c r="C53" s="13">
         <v>1.8130657999999999</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="13">
         <v>6.5060444999999998</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="13">
         <v>0.35156321000000001</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G53" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="H53" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="12">
-        <v>1</v>
-      </c>
-      <c r="C54" s="12">
+      <c r="B54" s="13">
+        <v>1</v>
+      </c>
+      <c r="C54" s="13">
         <v>1.1399819</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="13">
         <v>4.8809141</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="13">
         <v>0.32799826999999998</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="13">
         <v>2E-3</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H54" s="12" t="s">
+      <c r="H54" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="12">
-        <v>1</v>
-      </c>
-      <c r="C55" s="12">
+      <c r="B55" s="13">
+        <v>1</v>
+      </c>
+      <c r="C55" s="13">
         <v>0.4141531</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="13">
         <v>1.4372716999999999</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="13">
         <v>0.10696157000000001</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="13">
         <v>0.159</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="13">
         <v>0.16925806500000001</v>
       </c>
-      <c r="H55" s="12"/>
+      <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B56" s="12">
-        <v>1</v>
-      </c>
-      <c r="C56" s="12">
+      <c r="B56" s="13">
+        <v>1</v>
+      </c>
+      <c r="C56" s="13">
         <v>0.24884709999999999</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="13">
         <v>0.84761560000000002</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="13">
         <v>6.5974550000000007E-2</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="13">
         <v>0.54500000000000004</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="13">
         <v>0.54500000000000004</v>
       </c>
-      <c r="H56" s="12"/>
+      <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="12">
-        <v>1</v>
-      </c>
-      <c r="C57" s="12">
+      <c r="B57" s="13">
+        <v>1</v>
+      </c>
+      <c r="C57" s="13">
         <v>1.0831409000000001</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="13">
         <v>3.8563412000000001</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="13">
         <v>0.25957543</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="H57" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="12">
-        <v>1</v>
-      </c>
-      <c r="C58" s="12">
+      <c r="B58" s="13">
+        <v>1</v>
+      </c>
+      <c r="C58" s="13">
         <v>1.5140906999999999</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="13">
         <v>5.3872543000000004</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="13">
         <v>0.32874660999999999</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="13">
         <v>2E-3</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="H58" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="12">
-        <v>1</v>
-      </c>
-      <c r="C59" s="12">
+      <c r="B59" s="13">
+        <v>1</v>
+      </c>
+      <c r="C59" s="13">
         <v>2.1969748999999998</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="13">
         <v>10.694801999999999</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="13">
         <v>0.47124455999999998</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H59" s="12" t="s">
+      <c r="H59" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="12">
-        <v>1</v>
-      </c>
-      <c r="C60" s="12">
+      <c r="B60" s="13">
+        <v>1</v>
+      </c>
+      <c r="C60" s="13">
         <v>2.1456884999999999</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="13">
         <v>14.7308342</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="13">
         <v>0.59564647000000004</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H60" s="12" t="s">
+      <c r="H60" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="12">
-        <v>1</v>
-      </c>
-      <c r="C61" s="12">
+      <c r="B61" s="13">
+        <v>1</v>
+      </c>
+      <c r="C61" s="13">
         <v>1.4267847</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="13">
         <v>6.6392113999999998</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="13">
         <v>0.35619593999999999</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="13">
         <v>2E-3</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G61" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H61" s="12" t="s">
+      <c r="H61" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="12">
-        <v>1</v>
-      </c>
-      <c r="C62" s="12">
+      <c r="B62" s="13">
+        <v>1</v>
+      </c>
+      <c r="C62" s="13">
         <v>1.3914541</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="13">
         <v>6.3151646000000001</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="13">
         <v>0.34480523000000002</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H62" s="12" t="s">
+      <c r="H62" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="12">
-        <v>1</v>
-      </c>
-      <c r="C63" s="12">
+      <c r="B63" s="13">
+        <v>1</v>
+      </c>
+      <c r="C63" s="13">
         <v>2.0362312</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="13">
         <v>10.132312499999999</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="13">
         <v>0.47947012</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H63" s="12" t="s">
+      <c r="H63" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="12">
-        <v>1</v>
-      </c>
-      <c r="C64" s="12">
+      <c r="B64" s="13">
+        <v>1</v>
+      </c>
+      <c r="C64" s="13">
         <v>2.0060872999999999</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="13">
         <v>9.9734894000000001</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="13">
         <v>0.47552837999999997</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="13">
         <v>2E-3</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G64" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H64" s="12" t="s">
+      <c r="H64" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="12">
-        <v>1</v>
-      </c>
-      <c r="C65" s="12">
+      <c r="B65" s="13">
+        <v>1</v>
+      </c>
+      <c r="C65" s="13">
         <v>0.90419740000000004</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="13">
         <v>4.8898415999999996</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="13">
         <v>0.32840118000000001</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="13">
         <v>7.674419E-3</v>
       </c>
-      <c r="H65" s="12" t="s">
+      <c r="H65" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="12">
-        <v>1</v>
-      </c>
-      <c r="C66" s="12">
+      <c r="B66" s="13">
+        <v>1</v>
+      </c>
+      <c r="C66" s="13">
         <v>2.0075324000000001</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="13">
         <v>8.1075011999999997</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="13">
         <v>0.40320779000000001</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H66" s="12" t="s">
+      <c r="H66" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="12">
-        <v>1</v>
-      </c>
-      <c r="C67" s="12">
+      <c r="B67" s="13">
+        <v>1</v>
+      </c>
+      <c r="C67" s="13">
         <v>1.9575184000000001</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="13">
         <v>7.7357950999999998</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="13">
         <v>0.39196774000000001</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H67" s="12" t="s">
+      <c r="H67" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="12">
-        <v>1</v>
-      </c>
-      <c r="C68" s="12">
+      <c r="B68" s="13">
+        <v>1</v>
+      </c>
+      <c r="C68" s="13">
         <v>0.59603950000000006</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="13">
         <v>2.5186611000000001</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="13">
         <v>0.18630995</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="13">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="13">
         <v>8.4526316000000004E-2</v>
       </c>
-      <c r="H68" s="12"/>
+      <c r="H68" s="13"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="12">
-        <v>1</v>
-      </c>
-      <c r="C69" s="12">
+      <c r="B69" s="13">
+        <v>1</v>
+      </c>
+      <c r="C69" s="13">
         <v>0.33837220000000001</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="13">
         <v>1.4287726000000001</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="13">
         <v>0.11495685999999999</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="13">
         <v>0.27700000000000002</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="13">
         <v>0.29019047599999997</v>
       </c>
-      <c r="H69" s="12"/>
+      <c r="H69" s="13"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="12">
-        <v>1</v>
-      </c>
-      <c r="C70" s="12">
+      <c r="B70" s="13">
+        <v>1</v>
+      </c>
+      <c r="C70" s="13">
         <v>0.98461169999999998</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="13">
         <v>5.0161775000000004</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="13">
         <v>0.33405156000000003</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="13">
         <v>2E-3</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H70" s="12" t="s">
+      <c r="H70" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="12">
-        <v>1</v>
-      </c>
-      <c r="C71" s="12">
+      <c r="B71" s="13">
+        <v>1</v>
+      </c>
+      <c r="C71" s="13">
         <v>0.87625379999999997</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="13">
         <v>4.3206416000000001</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="13">
         <v>0.30170725999999998</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="13">
         <v>5.0769229999999997E-3</v>
       </c>
-      <c r="H71" s="12" t="s">
+      <c r="H71" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="12">
-        <v>1</v>
-      </c>
-      <c r="C72" s="12">
+      <c r="B72" s="13">
+        <v>1</v>
+      </c>
+      <c r="C72" s="13">
         <v>0.42499219999999999</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="13">
         <v>2.3986092000000001</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="13">
         <v>0.21042997999999999</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="13">
         <v>0.11700000000000001</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="13">
         <v>0.130881356</v>
       </c>
-      <c r="H72" s="12"/>
+      <c r="H72" s="13"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="12">
-        <v>1</v>
-      </c>
-      <c r="C73" s="12">
+      <c r="B73" s="13">
+        <v>1</v>
+      </c>
+      <c r="C73" s="13">
         <v>0.38978119999999999</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="13">
         <v>2.1971864000000001</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E73" s="13">
         <v>0.19622665</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="13">
         <v>0.108</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G73" s="13">
         <v>0.12289655200000001</v>
       </c>
-      <c r="H73" s="12"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="12">
-        <v>1</v>
-      </c>
-      <c r="C74" s="12">
+      <c r="B74" s="13">
+        <v>1</v>
+      </c>
+      <c r="C74" s="13">
         <v>0.39283309999999999</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="13">
         <v>1.4963643</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="13">
         <v>0.11087166</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="13">
         <v>0.123</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="13">
         <v>0.1353</v>
       </c>
-      <c r="H74" s="12"/>
+      <c r="H74" s="13"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="12">
-        <v>1</v>
-      </c>
-      <c r="C75" s="12">
+      <c r="B75" s="13">
+        <v>1</v>
+      </c>
+      <c r="C75" s="13">
         <v>0.99264600000000003</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="13">
         <v>4.0189858999999997</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="13">
         <v>0.26759369</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="13">
         <v>1E-3</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G75" s="13">
         <v>3.4736839999999999E-3</v>
       </c>
-      <c r="H75" s="12" t="s">
+      <c r="H75" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="12">
-        <v>1</v>
-      </c>
-      <c r="C76" s="12">
+      <c r="B76" s="13">
+        <v>1</v>
+      </c>
+      <c r="C76" s="13">
         <v>1.5642152</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="13">
         <v>6.3285754000000001</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="13">
         <v>0.36521037000000001</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="13">
         <v>2E-3</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G76" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H76" s="12" t="s">
+      <c r="H76" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="12">
-        <v>1</v>
-      </c>
-      <c r="C77" s="12">
+      <c r="B77" s="13">
+        <v>1</v>
+      </c>
+      <c r="C77" s="13">
         <v>0.86455579999999999</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="13">
         <v>3.4183555999999999</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="13">
         <v>0.23708360000000001</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="13">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G77" s="13">
         <v>1.0266667E-2</v>
       </c>
-      <c r="H77" s="12" t="s">
+      <c r="H77" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="12">
-        <v>1</v>
-      </c>
-      <c r="C78" s="12">
+      <c r="B78" s="13">
+        <v>1</v>
+      </c>
+      <c r="C78" s="13">
         <v>1.5307698999999999</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="13">
         <v>6.0482374999999999</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="13">
         <v>0.35477201000000003</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G78" s="13">
         <v>5.0769229999999997E-3</v>
       </c>
-      <c r="H78" s="12" t="s">
+      <c r="H78" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="12">
-        <v>1</v>
-      </c>
-      <c r="C79" s="12">
+      <c r="B79" s="13">
+        <v>1</v>
+      </c>
+      <c r="C79" s="13">
         <v>0.85857890000000003</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="13">
         <v>3.6525794999999999</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="13">
         <v>0.26753768</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="13">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G79" s="13">
         <v>3.9111110999999997E-2</v>
       </c>
-      <c r="H79" s="12" t="s">
+      <c r="H79" s="13" t="s">
         <v>19</v>
       </c>
     </row>
